--- a/data/output/best_policy_DEP_0.xlsx
+++ b/data/output/best_policy_DEP_0.xlsx
@@ -407,7 +407,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="C2">
         <v>0.9999999999999999</v>
@@ -471,10 +471,10 @@
         <v>3</v>
       </c>
       <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
         <v>0.6</v>
-      </c>
-      <c r="C4">
-        <v>0.7</v>
       </c>
       <c r="D4">
         <v>0.9999999999999999</v>
@@ -576,7 +576,7 @@
         <v>0.6</v>
       </c>
       <c r="E7">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="F7">
         <v>0.7</v>
@@ -682,31 +682,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1653.93417950652</v>
+        <v>1606.881393592354</v>
       </c>
       <c r="D3">
-        <v>2193.163609372864</v>
+        <v>2165.415219595079</v>
       </c>
       <c r="E3">
-        <v>2522.957567777099</v>
+        <v>2506.033519433562</v>
       </c>
       <c r="F3">
-        <v>2720.767268934773</v>
+        <v>2710.161438325579</v>
       </c>
       <c r="G3">
-        <v>2837.770787082168</v>
+        <v>2831.196336070091</v>
       </c>
       <c r="H3">
-        <v>2906.283781686962</v>
+        <v>2902.261693566078</v>
       </c>
       <c r="I3">
-        <v>2946.062566285622</v>
+        <v>2943.634617830735</v>
       </c>
       <c r="J3">
-        <v>2968.990909433152</v>
+        <v>2967.542725837814</v>
       </c>
       <c r="K3">
-        <v>2982.117191064756</v>
+        <v>2981.26289659976</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -717,31 +717,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>2796.553922826278</v>
+        <v>2782.601123711706</v>
       </c>
       <c r="D4">
-        <v>3666.628042956285</v>
+        <v>3644.629358662798</v>
       </c>
       <c r="E4">
-        <v>4369.654611661563</v>
+        <v>4346.7818298747</v>
       </c>
       <c r="F4">
-        <v>4896.315912723826</v>
+        <v>4875.57814845955</v>
       </c>
       <c r="G4">
-        <v>5271.069040619659</v>
+        <v>5254.234167588448</v>
       </c>
       <c r="H4">
-        <v>5528.087367368536</v>
+        <v>5515.360336031827</v>
       </c>
       <c r="I4">
-        <v>5699.410356799212</v>
+        <v>5690.267705290923</v>
       </c>
       <c r="J4">
-        <v>5811.043152278666</v>
+        <v>5804.721445888899</v>
       </c>
       <c r="K4">
-        <v>5882.402829198418</v>
+        <v>5878.163055317799</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -752,31 +752,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3501.790552571385</v>
+        <v>3501.852137995903</v>
       </c>
       <c r="D5">
-        <v>4798.508094230717</v>
+        <v>4723.252709250396</v>
       </c>
       <c r="E5">
-        <v>5724.68210993417</v>
+        <v>5669.306994036121</v>
       </c>
       <c r="F5">
-        <v>6531.959947737948</v>
+        <v>6487.566511083569</v>
       </c>
       <c r="G5">
-        <v>7194.961939852214</v>
+        <v>7158.984403039655</v>
       </c>
       <c r="H5">
-        <v>7713.884786507146</v>
+        <v>7685.213216231298</v>
       </c>
       <c r="I5">
-        <v>8104.234905080142</v>
+        <v>8082.018646025041</v>
       </c>
       <c r="J5">
-        <v>8388.365172481874</v>
+        <v>8371.658989157642</v>
       </c>
       <c r="K5">
-        <v>8589.453125969108</v>
+        <v>8577.251865422742</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -787,31 +787,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3982.126899806225</v>
+        <v>4036.140225025848</v>
       </c>
       <c r="D6">
-        <v>5735.349428022423</v>
+        <v>5744.916427972484</v>
       </c>
       <c r="E6">
-        <v>6915.946926315446</v>
+        <v>6805.627665773483</v>
       </c>
       <c r="F6">
-        <v>7853.35640289655</v>
+        <v>7765.064686652603</v>
       </c>
       <c r="G6">
-        <v>8714.636844068222</v>
+        <v>8643.633027914706</v>
       </c>
       <c r="H6">
-        <v>9466.910068922643</v>
+        <v>9409.896201113801</v>
       </c>
       <c r="I6">
-        <v>10095.32224197293</v>
+        <v>10049.98815853577</v>
       </c>
       <c r="J6">
-        <v>10600.34511234037</v>
+        <v>10564.85338809776</v>
       </c>
       <c r="K6">
-        <v>10992.64793409559</v>
+        <v>10965.3976296963</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -822,31 +822,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4248.948008376206</v>
+        <v>4316.87802416971</v>
       </c>
       <c r="D7">
-        <v>6427.838295931921</v>
+        <v>6466.526207529992</v>
       </c>
       <c r="E7">
-        <v>7924.136053731387</v>
+        <v>7918.421963679272</v>
       </c>
       <c r="F7">
-        <v>9071.352395451371</v>
+        <v>8936.787653168605</v>
       </c>
       <c r="G7">
-        <v>10019.3279620481</v>
+        <v>9904.839319309642</v>
       </c>
       <c r="H7">
-        <v>10915.95849613275</v>
+        <v>10820.15014581657</v>
       </c>
       <c r="I7">
-        <v>11730.3194679055</v>
+        <v>11651.32707395172</v>
       </c>
       <c r="J7">
-        <v>12442.0423754619</v>
+        <v>12377.88121740383</v>
       </c>
       <c r="K7">
-        <v>13042.19273240217</v>
+        <v>12990.92772281448</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -857,31 +857,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4368.393238662507</v>
+        <v>4444.642683620494</v>
       </c>
       <c r="D8">
-        <v>6892.389684187677</v>
+        <v>6995.678399484545</v>
       </c>
       <c r="E8">
-        <v>8785.980837464742</v>
+        <v>8819.051250226752</v>
       </c>
       <c r="F8">
-        <v>10133.88622067608</v>
+        <v>10095.42105758657</v>
       </c>
       <c r="G8">
-        <v>11256.43645726574</v>
+        <v>11094.23661055859</v>
       </c>
       <c r="H8">
-        <v>12212.98088858104</v>
+        <v>12072.08972692483</v>
       </c>
       <c r="I8">
-        <v>13134.51517945778</v>
+        <v>13013.98170939811</v>
       </c>
       <c r="J8">
-        <v>13994.12851004561</v>
+        <v>13892.57766216627</v>
       </c>
       <c r="K8">
-        <v>14769.99664581601</v>
+        <v>14685.78671529319</v>
       </c>
     </row>
   </sheetData>
